--- a/Models/TTWO.xlsx
+++ b/Models/TTWO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kipp\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{414FE4C7-0CCE-445A-ADBF-2A9B8836ACD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39DB3609-D525-4A04-ACE1-F0F8E6DE5999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7800" yWindow="375" windowWidth="18075" windowHeight="15105" xr2:uid="{72E375EC-A7A1-4EB1-B990-5ECBBC0BBD02}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{72E375EC-A7A1-4EB1-B990-5ECBBC0BBD02}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="124">
   <si>
     <t>Price</t>
   </si>
@@ -139,15 +139,6 @@
     <t>Zynga</t>
   </si>
   <si>
-    <t>GTA</t>
-  </si>
-  <si>
-    <t>NBA</t>
-  </si>
-  <si>
-    <t>Free Mobile and online games</t>
-  </si>
-  <si>
     <t>Revenue share:</t>
   </si>
   <si>
@@ -181,9 +172,6 @@
     <t>Interest and other</t>
   </si>
   <si>
-    <t>Loss on fair value</t>
-  </si>
-  <si>
     <t>Taxes</t>
   </si>
   <si>
@@ -349,30 +337,12 @@
     <t>Difference</t>
   </si>
   <si>
-    <t>Revenue climbing mainly during game releases</t>
-  </si>
-  <si>
-    <t>GTA 6 release date fall 2025</t>
-  </si>
-  <si>
-    <t>Upcoming games:</t>
-  </si>
-  <si>
-    <t>GTA 6</t>
-  </si>
-  <si>
-    <t>Civ 7</t>
-  </si>
-  <si>
     <t>CEO Strauss Zelnick</t>
   </si>
   <si>
     <t xml:space="preserve"> Founded 1993</t>
   </si>
   <si>
-    <t>Take Two isa leading developer, publisher and marketer of video games.</t>
-  </si>
-  <si>
     <t>Before GTA releases it has volatile price movements if something goes bad.</t>
   </si>
   <si>
@@ -383,6 +353,84 @@
   </si>
   <si>
     <t>CIV7</t>
+  </si>
+  <si>
+    <t>Mixed opinions</t>
+  </si>
+  <si>
+    <t>Former Chariman of CBS</t>
+  </si>
+  <si>
+    <t>Private Division</t>
+  </si>
+  <si>
+    <t>Fall 2025</t>
+  </si>
+  <si>
+    <t>Employees:</t>
+  </si>
+  <si>
+    <t>Game Developments - 9639</t>
+  </si>
+  <si>
+    <t>Grand Theft Auto</t>
+  </si>
+  <si>
+    <t>LA Noire</t>
+  </si>
+  <si>
+    <t>Max Payne</t>
+  </si>
+  <si>
+    <t>Midnight Club</t>
+  </si>
+  <si>
+    <t>Read Dead Redemption</t>
+  </si>
+  <si>
+    <t>Grand Theft Auto Series sold 420 million copies worldwide</t>
+  </si>
+  <si>
+    <t>Read Dead Redemption 2 sold 60 million units worldwide</t>
+  </si>
+  <si>
+    <t>Very many mobile games</t>
+  </si>
+  <si>
+    <t>GTA, RDR2</t>
+  </si>
+  <si>
+    <t>Kerbal Space Program, OlliOlli World</t>
+  </si>
+  <si>
+    <t>NBA, WWE</t>
+  </si>
+  <si>
+    <t>Acquired GearBox March 27, 2024</t>
+  </si>
+  <si>
+    <t>Key Questions</t>
+  </si>
+  <si>
+    <t>Are their huge GTA 5 investments worth it? If we use historical data then GTA should make great results and boost revenue.</t>
+  </si>
+  <si>
+    <t>Take Two is a leading developer, publisher and marketer of video games.</t>
+  </si>
+  <si>
+    <t>How much recurring expenses are coming with GTA launch?</t>
+  </si>
+  <si>
+    <t>Is the GTA going to mess this release up somehow?</t>
+  </si>
+  <si>
+    <t>GearBox</t>
+  </si>
+  <si>
+    <t>Borderlands series</t>
+  </si>
+  <si>
+    <t>GearBox revenue mix?</t>
   </si>
 </sst>
 </file>
@@ -393,7 +441,7 @@
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -413,6 +461,15 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -439,7 +496,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -469,6 +526,14 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -491,16 +556,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>629964</xdr:colOff>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>629964</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -515,8 +580,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13935075" y="190500"/>
-          <a:ext cx="19050" cy="5534025"/>
+          <a:off x="14345964" y="0"/>
+          <a:ext cx="0" cy="7534275"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -860,175 +925,252 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39BF59D1-5C9C-4FC0-822C-21DD23B47162}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="K2" s="26" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="K3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" t="s">
+        <v>114</v>
+      </c>
+      <c r="K4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" t="s">
+        <v>113</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="K5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="K6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>111</v>
+      </c>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>105</v>
+      </c>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>106</v>
+      </c>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>107</v>
+      </c>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>108</v>
+      </c>
+      <c r="H11" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I11" s="2">
         <v>182.34</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>104</v>
+      </c>
+      <c r="H12" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I12" s="3">
         <v>175</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="H6" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="H13" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="3">
-        <f>I5*I4</f>
+      <c r="I13" s="3">
+        <f>I12*I11</f>
         <v>31909.5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>106</v>
-      </c>
-      <c r="H7" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="H14" t="s">
         <v>2</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I14" s="3">
         <f>876.1+357.5+3.5</f>
         <v>1237.0999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>107</v>
-      </c>
-      <c r="H8" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="21">
+        <v>45689</v>
+      </c>
+      <c r="H15" t="s">
         <v>3</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I15" s="3">
         <f>599.2+3055</f>
         <v>3654.2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H9" s="5" t="s">
+    <row r="16" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H16" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="6">
-        <f>I6+I8-I7</f>
+      <c r="I16" s="6">
+        <f>I13+I15-I14</f>
         <v>34326.6</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="I11" s="19"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="2:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H18" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="I18" s="19"/>
+    </row>
+    <row r="19" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H19" s="22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" t="s">
         <v>98</v>
       </c>
-      <c r="C14" t="s">
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C26" s="4">
         <v>0.9</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C27" s="4">
         <v>0.1</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>104</v>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1040,13 +1182,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EED65FD-B2CE-40F3-9CBA-5B051E2FF6AD}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:BR54"/>
+  <dimension ref="A1:CW53"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="V3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N35" sqref="N35"/>
+      <selection pane="bottomRight" activeCell="X34" sqref="X34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1061,7 +1203,7 @@
     <col min="17" max="17" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="18" max="20" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13" customWidth="1"/>
     <col min="30" max="30" width="9.140625" style="13"/>
   </cols>
   <sheetData>
@@ -1153,52 +1295,52 @@
         <v>18</v>
       </c>
       <c r="O2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="P2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Q2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="R2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="S2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="T2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="U2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="V2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="W2" t="s">
+        <v>79</v>
+      </c>
+      <c r="X2" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z2" t="s">
         <v>83</v>
       </c>
-      <c r="X2" t="s">
+      <c r="AA2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD2" t="s">
         <v>86</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>90</v>
       </c>
       <c r="AF2">
         <v>2021</v>
@@ -1211,6 +1353,21 @@
       </c>
       <c r="AI2">
         <v>2024</v>
+      </c>
+      <c r="AJ2">
+        <v>2025</v>
+      </c>
+      <c r="AK2">
+        <v>2026</v>
+      </c>
+      <c r="AL2">
+        <v>2027</v>
+      </c>
+      <c r="AM2">
+        <v>2028</v>
+      </c>
+      <c r="AN2">
+        <v>2029</v>
       </c>
     </row>
     <row r="3" spans="1:44" x14ac:dyDescent="0.25">
@@ -1240,51 +1397,54 @@
         <v>1128</v>
       </c>
       <c r="Q3" s="8" cm="1">
-        <f t="array" aca="1" ref="Q3" ca="1">+W9+Q3+Q3:Q21</f>
+        <f t="array" aca="1" ref="Q3" ca="1">+W9+Q3+Q3:Q20</f>
         <v>0</v>
       </c>
       <c r="S3" s="8">
         <v>1216</v>
       </c>
-      <c r="U3">
-        <f>1216*1.6</f>
-        <v>1945.6000000000001</v>
-      </c>
-      <c r="V3">
-        <f t="shared" ref="V3" si="0">1216*1.6</f>
-        <v>1945.6000000000001</v>
-      </c>
-      <c r="W3">
-        <f>1216*1.6</f>
-        <v>1945.6000000000001</v>
+      <c r="T3" s="8">
+        <v>1216</v>
+      </c>
+      <c r="U3" s="8">
+        <f>T3*1.2</f>
+        <v>1459.2</v>
+      </c>
+      <c r="V3" s="8">
+        <f>U3*1.1</f>
+        <v>1605.1200000000001</v>
+      </c>
+      <c r="W3" s="8">
+        <f t="shared" ref="W3:AD3" si="0">V3*1.1</f>
+        <v>1765.6320000000003</v>
       </c>
       <c r="X3" s="8">
-        <f>W3*1.6</f>
-        <v>3112.9600000000005</v>
+        <f t="shared" si="0"/>
+        <v>1942.1952000000006</v>
       </c>
       <c r="Y3" s="8">
-        <f t="shared" ref="Y3:Z3" si="1">X3*1.6</f>
-        <v>4980.7360000000008</v>
+        <f t="shared" si="0"/>
+        <v>2136.4147200000007</v>
       </c>
       <c r="Z3" s="8">
-        <f t="shared" si="1"/>
-        <v>7969.1776000000018</v>
+        <f t="shared" si="0"/>
+        <v>2350.0561920000009</v>
       </c>
       <c r="AA3" s="8">
-        <f>Z3*0.9</f>
-        <v>7172.2598400000015</v>
+        <f t="shared" si="0"/>
+        <v>2585.0618112000011</v>
       </c>
       <c r="AB3" s="8">
-        <f t="shared" ref="AB3:AD3" si="2">AA3*0.9</f>
-        <v>6455.0338560000018</v>
+        <f t="shared" si="0"/>
+        <v>2843.5679923200014</v>
       </c>
       <c r="AC3" s="8">
-        <f t="shared" si="2"/>
-        <v>5809.5304704000018</v>
+        <f t="shared" si="0"/>
+        <v>3127.9247915520018</v>
       </c>
       <c r="AD3" s="8">
-        <f t="shared" si="2"/>
-        <v>5228.5774233600014</v>
+        <f t="shared" si="0"/>
+        <v>3440.7172707072023</v>
       </c>
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.25">
@@ -1324,11 +1484,11 @@
         <v>96</v>
       </c>
       <c r="W4" s="8">
-        <f t="shared" ref="W4:X4" si="3">V4*0.8</f>
+        <f t="shared" ref="W4:X4" si="1">V4*0.8</f>
         <v>76.800000000000011</v>
       </c>
       <c r="X4" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>61.440000000000012</v>
       </c>
       <c r="Y4" s="8">
@@ -1336,31 +1496,33 @@
         <v>79.872000000000014</v>
       </c>
       <c r="Z4" s="8">
-        <f t="shared" ref="Z4:AD4" si="4">Y4*1.3</f>
+        <f t="shared" ref="Z4:AD4" si="2">Y4*1.3</f>
         <v>103.83360000000002</v>
       </c>
       <c r="AA4" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>134.98368000000002</v>
       </c>
       <c r="AB4" s="8">
-        <f t="shared" si="4"/>
-        <v>175.47878400000005</v>
+        <f>AA4*1.1</f>
+        <v>148.48204800000005</v>
       </c>
       <c r="AC4" s="8">
-        <f t="shared" si="4"/>
-        <v>228.12241920000008</v>
+        <f t="shared" ref="AC4:AD4" si="3">AB4*1.1</f>
+        <v>163.33025280000007</v>
       </c>
       <c r="AD4" s="8">
-        <f t="shared" si="4"/>
-        <v>296.55914496000014</v>
+        <f t="shared" si="3"/>
+        <v>179.66327808000008</v>
       </c>
     </row>
     <row r="5" spans="1:44" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="9"/>
+        <v>27</v>
+      </c>
+      <c r="G5" s="9">
+        <v>813</v>
+      </c>
       <c r="H5" s="9">
         <v>858</v>
       </c>
@@ -1368,14 +1530,14 @@
         <v>903</v>
       </c>
       <c r="J5" s="9">
-        <f t="shared" ref="J5:Q5" si="5">J3+J4</f>
+        <f t="shared" ref="J5:Q5" si="4">J3+J4</f>
         <v>1102</v>
       </c>
       <c r="K5" s="9">
         <v>1102</v>
       </c>
       <c r="L5" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1392</v>
       </c>
       <c r="M5" s="9">
@@ -1383,131 +1545,110 @@
         <v>1407</v>
       </c>
       <c r="N5" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1352</v>
       </c>
       <c r="O5" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1284</v>
       </c>
       <c r="P5" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1298</v>
       </c>
       <c r="Q5" s="9">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1366</v>
       </c>
       <c r="R5" s="9">
         <v>1299</v>
       </c>
       <c r="S5" s="9">
-        <f t="shared" ref="S5" si="6">S3+S4</f>
+        <f t="shared" ref="S5" si="5">S3+S4</f>
         <v>1337</v>
       </c>
       <c r="T5" s="9">
         <v>1353</v>
       </c>
       <c r="U5" s="9">
-        <f t="shared" ref="U5" si="7">U3+U4</f>
-        <v>2065.6000000000004</v>
+        <f t="shared" ref="U5" si="6">U3+U4</f>
+        <v>1579.2</v>
       </c>
       <c r="V5" s="9">
         <f>V3+V4</f>
-        <v>2041.6000000000001</v>
+        <v>1701.1200000000001</v>
       </c>
       <c r="W5" s="9">
-        <f t="shared" ref="W5" si="8">W3+W4</f>
-        <v>2022.4</v>
+        <f t="shared" ref="W5" si="7">W3+W4</f>
+        <v>1842.4320000000002</v>
       </c>
       <c r="X5" s="9">
-        <f t="shared" ref="X5" si="9">X3+X4</f>
-        <v>3174.4000000000005</v>
+        <f t="shared" ref="X5" si="8">X3+X4</f>
+        <v>2003.6352000000006</v>
       </c>
       <c r="Y5" s="9">
-        <f t="shared" ref="Y5" si="10">Y3+Y4</f>
-        <v>5060.6080000000011</v>
+        <f t="shared" ref="Y5" si="9">Y3+Y4</f>
+        <v>2216.2867200000005</v>
       </c>
       <c r="Z5" s="9">
-        <f t="shared" ref="Z5" si="11">Z3+Z4</f>
-        <v>8073.0112000000017</v>
+        <f t="shared" ref="Z5" si="10">Z3+Z4</f>
+        <v>2453.8897920000009</v>
       </c>
       <c r="AA5" s="9">
-        <f t="shared" ref="AA5" si="12">AA3+AA4</f>
-        <v>7307.2435200000018</v>
+        <f t="shared" ref="AA5" si="11">AA3+AA4</f>
+        <v>2720.0454912000009</v>
       </c>
       <c r="AB5" s="9">
-        <f t="shared" ref="AB5" si="13">AB3+AB4</f>
-        <v>6630.5126400000017</v>
+        <f t="shared" ref="AB5" si="12">AB3+AB4</f>
+        <v>2992.0500403200012</v>
       </c>
       <c r="AC5" s="9">
-        <f t="shared" ref="AC5" si="14">AC3+AC4</f>
-        <v>6037.6528896000018</v>
+        <f t="shared" ref="AC5" si="13">AC3+AC4</f>
+        <v>3291.2550443520017</v>
       </c>
       <c r="AD5" s="9">
-        <f t="shared" ref="AD5" si="15">AD3+AD4</f>
-        <v>5525.136568320002</v>
-      </c>
-      <c r="AE5" s="9">
-        <f>AD5*0.9</f>
-        <v>4972.6229114880016</v>
-      </c>
-      <c r="AF5" s="9">
-        <f t="shared" ref="AF5:AR5" si="16">AE5*0.9</f>
-        <v>4475.3606203392019</v>
-      </c>
+        <f t="shared" ref="AD5" si="14">AD3+AD4</f>
+        <v>3620.3805487872023</v>
+      </c>
+      <c r="AE5" s="9"/>
+      <c r="AF5" s="9"/>
       <c r="AG5" s="9">
-        <f t="shared" si="16"/>
-        <v>4027.8245583052817</v>
+        <f>SUM(G5:J5)</f>
+        <v>3676</v>
       </c>
       <c r="AH5" s="9">
-        <f t="shared" si="16"/>
-        <v>3625.0421024747534</v>
+        <f>SUM(K5:N5)</f>
+        <v>5253</v>
       </c>
       <c r="AI5" s="9">
-        <f t="shared" si="16"/>
-        <v>3262.537892227278</v>
+        <f>SUM(L5:O5)</f>
+        <v>5435</v>
       </c>
       <c r="AJ5" s="9">
-        <f t="shared" si="16"/>
-        <v>2936.2841030045502</v>
+        <f>SUM(S5:V5)</f>
+        <v>5970.32</v>
       </c>
       <c r="AK5" s="9">
-        <f t="shared" si="16"/>
-        <v>2642.6556927040951</v>
+        <f>SUM(W5:Z5)</f>
+        <v>8516.2437120000031</v>
       </c>
       <c r="AL5" s="9">
-        <f t="shared" si="16"/>
-        <v>2378.3901234336859</v>
-      </c>
-      <c r="AM5" s="9">
-        <f t="shared" si="16"/>
-        <v>2140.5511110903171</v>
-      </c>
-      <c r="AN5" s="9">
-        <f t="shared" si="16"/>
-        <v>1926.4959999812854</v>
-      </c>
-      <c r="AO5" s="9">
-        <f t="shared" si="16"/>
-        <v>1733.846399983157</v>
-      </c>
-      <c r="AP5" s="9">
-        <f t="shared" si="16"/>
-        <v>1560.4617599848414</v>
-      </c>
-      <c r="AQ5" s="9">
-        <f t="shared" si="16"/>
-        <v>1404.4155839863572</v>
-      </c>
-      <c r="AR5" s="9">
-        <f t="shared" si="16"/>
-        <v>1263.9740255877216</v>
-      </c>
+        <f>SUM(AA5:AD5)</f>
+        <v>12623.731124659207</v>
+      </c>
+      <c r="AM5" s="9"/>
+      <c r="AN5" s="9"/>
+      <c r="AO5" s="9"/>
+      <c r="AP5" s="9"/>
+      <c r="AQ5" s="9"/>
+      <c r="AR5" s="9"/>
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="G6" s="11">
+        <v>329</v>
       </c>
       <c r="H6" s="11">
         <v>456</v>
@@ -1549,52 +1690,80 @@
         <v>613</v>
       </c>
       <c r="U6" s="8">
-        <f>U5-U7</f>
-        <v>1032.8000000000002</v>
+        <f>T6*1.05</f>
+        <v>643.65</v>
       </c>
       <c r="V6" s="8">
-        <f t="shared" ref="V6:X6" si="17">V5-V7</f>
-        <v>1020.8000000000001</v>
+        <f t="shared" ref="V6:AD6" si="15">U6*1.05</f>
+        <v>675.83249999999998</v>
       </c>
       <c r="W6" s="8">
-        <f t="shared" si="17"/>
-        <v>1011.2</v>
+        <f t="shared" si="15"/>
+        <v>709.62412500000005</v>
       </c>
       <c r="X6" s="8">
-        <f t="shared" si="17"/>
-        <v>1587.2000000000003</v>
+        <f t="shared" si="15"/>
+        <v>745.10533125000006</v>
       </c>
       <c r="Y6" s="8">
-        <f>Y5-Y7*0.9</f>
-        <v>2783.3344000000006</v>
+        <f t="shared" si="15"/>
+        <v>782.36059781250015</v>
       </c>
       <c r="Z6" s="8">
-        <f t="shared" ref="Z6:AD6" si="18">Z5-Z7*0.9</f>
-        <v>4440.1561600000005</v>
+        <f t="shared" si="15"/>
+        <v>821.4786277031252</v>
       </c>
       <c r="AA6" s="8">
-        <f t="shared" si="18"/>
-        <v>4018.983936000001</v>
+        <f t="shared" si="15"/>
+        <v>862.55255908828144</v>
       </c>
       <c r="AB6" s="8">
-        <f t="shared" si="18"/>
-        <v>3646.7819520000007</v>
+        <f t="shared" si="15"/>
+        <v>905.68018704269559</v>
       </c>
       <c r="AC6" s="8">
-        <f t="shared" si="18"/>
-        <v>3320.7090892800011</v>
+        <f t="shared" si="15"/>
+        <v>950.96419639483042</v>
       </c>
       <c r="AD6" s="8">
-        <f t="shared" si="18"/>
-        <v>3038.8251125760012</v>
+        <f t="shared" si="15"/>
+        <v>998.51240621457202</v>
+      </c>
+      <c r="AG6" s="11">
+        <f t="shared" ref="AG6:AG11" si="16">SUM(G6:J6)</f>
+        <v>1570</v>
+      </c>
+      <c r="AH6" s="11">
+        <f t="shared" ref="AH6:AH11" si="17">SUM(K6:N6)</f>
+        <v>2444</v>
+      </c>
+      <c r="AI6" s="11">
+        <f>SUM(L6:O6)</f>
+        <v>2634</v>
+      </c>
+      <c r="AJ6" s="11">
+        <f>SUM(S6:V6)</f>
+        <v>2499.4825000000001</v>
+      </c>
+      <c r="AK6" s="11">
+        <f t="shared" ref="AK6:AK11" si="18">SUM(W6:Z6)</f>
+        <v>3058.5686817656256</v>
+      </c>
+      <c r="AL6" s="11">
+        <f>SUM(AA6:AD6)</f>
+        <v>3717.7093487403795</v>
       </c>
     </row>
     <row r="7" spans="1:44" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
+      </c>
+      <c r="G7" s="9">
+        <f t="shared" ref="G7" si="19">G5-G6</f>
+        <v>484</v>
       </c>
       <c r="H7" s="9">
-        <f t="shared" ref="H7:M7" si="19">H5-H6</f>
+        <f t="shared" ref="H7:M7" si="20">H5-H6</f>
         <v>402</v>
       </c>
       <c r="I7" s="9">
@@ -1602,18 +1771,18 @@
         <v>553</v>
       </c>
       <c r="J7" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>667</v>
       </c>
       <c r="K7" s="5">
         <v>686</v>
       </c>
       <c r="L7" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>679</v>
       </c>
       <c r="M7" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>716</v>
       </c>
       <c r="N7" s="5">
@@ -1641,49 +1810,76 @@
         <v>739</v>
       </c>
       <c r="U7" s="9">
-        <f>U5*0.5</f>
-        <v>1032.8000000000002</v>
+        <f>U5-U6</f>
+        <v>935.55000000000007</v>
       </c>
       <c r="V7" s="9">
-        <f t="shared" ref="V7:AD7" si="20">V5*0.5</f>
-        <v>1020.8000000000001</v>
+        <f t="shared" ref="V7:AD7" si="21">V5-V6</f>
+        <v>1025.2875000000001</v>
       </c>
       <c r="W7" s="9">
-        <f t="shared" si="20"/>
-        <v>1011.2</v>
+        <f t="shared" si="21"/>
+        <v>1132.8078750000002</v>
       </c>
       <c r="X7" s="9">
-        <f t="shared" si="20"/>
-        <v>1587.2000000000003</v>
+        <f t="shared" si="21"/>
+        <v>1258.5298687500006</v>
       </c>
       <c r="Y7" s="9">
-        <f t="shared" si="20"/>
-        <v>2530.3040000000005</v>
+        <f t="shared" si="21"/>
+        <v>1433.9261221875004</v>
       </c>
       <c r="Z7" s="9">
-        <f t="shared" si="20"/>
-        <v>4036.5056000000009</v>
+        <f t="shared" si="21"/>
+        <v>1632.4111642968755</v>
       </c>
       <c r="AA7" s="9">
-        <f t="shared" si="20"/>
-        <v>3653.6217600000009</v>
+        <f t="shared" si="21"/>
+        <v>1857.4929321117195</v>
       </c>
       <c r="AB7" s="9">
-        <f t="shared" si="20"/>
-        <v>3315.2563200000009</v>
+        <f t="shared" si="21"/>
+        <v>2086.3698532773055</v>
       </c>
       <c r="AC7" s="9">
-        <f t="shared" si="20"/>
-        <v>3018.8264448000009</v>
+        <f t="shared" si="21"/>
+        <v>2340.2908479571715</v>
       </c>
       <c r="AD7" s="9">
-        <f t="shared" si="20"/>
-        <v>2762.568284160001</v>
+        <f t="shared" si="21"/>
+        <v>2621.8681425726304</v>
+      </c>
+      <c r="AG7" s="9">
+        <f>AG5-AG6</f>
+        <v>2106</v>
+      </c>
+      <c r="AH7" s="9">
+        <f t="shared" ref="AH7:AJ7" si="22">AH5-AH6</f>
+        <v>2809</v>
+      </c>
+      <c r="AI7" s="9">
+        <f t="shared" si="22"/>
+        <v>2801</v>
+      </c>
+      <c r="AJ7" s="9">
+        <f t="shared" si="22"/>
+        <v>3470.8374999999996</v>
+      </c>
+      <c r="AK7" s="9">
+        <f t="shared" ref="AK7" si="23">AK5-AK6</f>
+        <v>5457.6750302343771</v>
+      </c>
+      <c r="AL7" s="9">
+        <f t="shared" ref="AL7" si="24">AL5-AL6</f>
+        <v>8906.0217759188272</v>
       </c>
     </row>
     <row r="8" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>50</v>
+        <v>46</v>
+      </c>
+      <c r="G8" s="11">
+        <v>103.854</v>
       </c>
       <c r="H8" s="11">
         <v>136</v>
@@ -1724,20 +1920,77 @@
       <c r="T8" s="8">
         <v>713</v>
       </c>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
-      <c r="X8" s="8"/>
-      <c r="Y8" s="8"/>
-      <c r="Z8" s="8"/>
-      <c r="AA8" s="8"/>
-      <c r="AB8" s="8"/>
-      <c r="AC8" s="8"/>
-      <c r="AD8" s="16"/>
+      <c r="U8" s="8">
+        <f>T8*1.02</f>
+        <v>727.26</v>
+      </c>
+      <c r="V8" s="8">
+        <f t="shared" ref="V8:AD8" si="25">U8*1.02</f>
+        <v>741.80520000000001</v>
+      </c>
+      <c r="W8" s="8">
+        <f t="shared" si="25"/>
+        <v>756.64130399999999</v>
+      </c>
+      <c r="X8" s="8">
+        <f t="shared" si="25"/>
+        <v>771.77413007999996</v>
+      </c>
+      <c r="Y8" s="8">
+        <f t="shared" si="25"/>
+        <v>787.20961268159999</v>
+      </c>
+      <c r="Z8" s="8">
+        <f>Y8*0.98</f>
+        <v>771.46542042796796</v>
+      </c>
+      <c r="AA8" s="8">
+        <f t="shared" ref="AA8:AD8" si="26">Z8*0.98</f>
+        <v>756.03611201940862</v>
+      </c>
+      <c r="AB8" s="8">
+        <f t="shared" si="26"/>
+        <v>740.91538977902042</v>
+      </c>
+      <c r="AC8" s="8">
+        <f t="shared" si="26"/>
+        <v>726.09708198344003</v>
+      </c>
+      <c r="AD8" s="8">
+        <f t="shared" si="26"/>
+        <v>711.57514034377118</v>
+      </c>
+      <c r="AG8" s="11">
+        <f t="shared" si="16"/>
+        <v>646.85400000000004</v>
+      </c>
+      <c r="AH8" s="11">
+        <f>SUM(K8:N8)</f>
+        <v>1860</v>
+      </c>
+      <c r="AI8" s="11">
+        <f t="shared" ref="AI8:AJ11" si="27">SUM(L8:O8)</f>
+        <v>1750</v>
+      </c>
+      <c r="AJ8" s="11">
+        <f t="shared" ref="AJ8:AJ11" si="28">SUM(S8:V8)</f>
+        <v>2613.0652</v>
+      </c>
+      <c r="AK8" s="11">
+        <f t="shared" si="18"/>
+        <v>3087.0904671895678</v>
+      </c>
+      <c r="AL8" s="11">
+        <f t="shared" ref="AL8:AL11" si="29">SUM(AA8:AD8)</f>
+        <v>2934.6237241256404</v>
+      </c>
     </row>
     <row r="9" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="G9" s="11">
+        <v>92.293999999999997</v>
       </c>
       <c r="H9" s="11">
         <v>101</v>
@@ -1778,20 +2031,67 @@
       <c r="T9" s="9">
         <v>246</v>
       </c>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
-      <c r="X9" s="8"/>
-      <c r="Y9" s="8"/>
-      <c r="Z9" s="8"/>
-      <c r="AA9" s="8"/>
-      <c r="AB9" s="8"/>
-      <c r="AC9" s="8"/>
-      <c r="AD9" s="16"/>
+      <c r="U9" s="8">
+        <v>220</v>
+      </c>
+      <c r="V9" s="8">
+        <v>220</v>
+      </c>
+      <c r="W9" s="8">
+        <v>220</v>
+      </c>
+      <c r="X9" s="8">
+        <v>220</v>
+      </c>
+      <c r="Y9" s="8">
+        <v>220</v>
+      </c>
+      <c r="Z9" s="8">
+        <v>220</v>
+      </c>
+      <c r="AA9" s="8">
+        <v>220</v>
+      </c>
+      <c r="AB9" s="8">
+        <v>220</v>
+      </c>
+      <c r="AC9" s="8">
+        <v>220</v>
+      </c>
+      <c r="AD9" s="8">
+        <v>220</v>
+      </c>
+      <c r="AG9" s="11">
+        <f t="shared" si="16"/>
+        <v>481.29399999999998</v>
+      </c>
+      <c r="AH9" s="11">
+        <f t="shared" si="17"/>
+        <v>899</v>
+      </c>
+      <c r="AI9" s="11">
+        <f t="shared" si="27"/>
+        <v>965</v>
+      </c>
+      <c r="AJ9" s="11">
+        <f t="shared" si="28"/>
+        <v>905</v>
+      </c>
+      <c r="AK9" s="11">
+        <f t="shared" si="18"/>
+        <v>880</v>
+      </c>
+      <c r="AL9" s="11">
+        <f t="shared" si="29"/>
+        <v>880</v>
+      </c>
     </row>
     <row r="10" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+      <c r="G10" s="11">
+        <v>104.447</v>
       </c>
       <c r="H10" s="11">
         <v>127</v>
@@ -1825,20 +2125,67 @@
         <v>210</v>
       </c>
       <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="8"/>
-      <c r="X10" s="8"/>
-      <c r="Y10" s="8"/>
-      <c r="Z10" s="8"/>
-      <c r="AA10" s="8"/>
-      <c r="AB10" s="8"/>
-      <c r="AC10" s="8"/>
-      <c r="AD10" s="16"/>
+      <c r="U10" s="8">
+        <v>200</v>
+      </c>
+      <c r="V10" s="8">
+        <v>200</v>
+      </c>
+      <c r="W10" s="8">
+        <v>200</v>
+      </c>
+      <c r="X10" s="8">
+        <v>200</v>
+      </c>
+      <c r="Y10" s="8">
+        <v>200</v>
+      </c>
+      <c r="Z10" s="8">
+        <v>200</v>
+      </c>
+      <c r="AA10" s="8">
+        <v>200</v>
+      </c>
+      <c r="AB10" s="8">
+        <v>200</v>
+      </c>
+      <c r="AC10" s="8">
+        <v>200</v>
+      </c>
+      <c r="AD10" s="8">
+        <v>200</v>
+      </c>
+      <c r="AG10" s="11">
+        <f t="shared" si="16"/>
+        <v>598.447</v>
+      </c>
+      <c r="AH10" s="11">
+        <f t="shared" si="17"/>
+        <v>636</v>
+      </c>
+      <c r="AI10" s="11">
+        <f t="shared" si="27"/>
+        <v>833</v>
+      </c>
+      <c r="AJ10" s="11">
+        <f t="shared" si="28"/>
+        <v>610</v>
+      </c>
+      <c r="AK10" s="11">
+        <f t="shared" si="18"/>
+        <v>800</v>
+      </c>
+      <c r="AL10" s="11">
+        <f t="shared" si="29"/>
+        <v>800</v>
+      </c>
     </row>
     <row r="11" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
+      </c>
+      <c r="G11" s="11">
+        <v>12</v>
       </c>
       <c r="H11" s="11">
         <v>16</v>
@@ -1872,20 +2219,67 @@
         <v>45</v>
       </c>
       <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="8"/>
-      <c r="X11" s="8"/>
-      <c r="Y11" s="8"/>
-      <c r="Z11" s="8"/>
-      <c r="AA11" s="8"/>
-      <c r="AB11" s="8"/>
-      <c r="AC11" s="8"/>
-      <c r="AD11" s="16"/>
+      <c r="U11" s="8">
+        <v>30</v>
+      </c>
+      <c r="V11" s="8">
+        <v>30</v>
+      </c>
+      <c r="W11" s="8">
+        <v>30</v>
+      </c>
+      <c r="X11" s="8">
+        <v>30</v>
+      </c>
+      <c r="Y11" s="8">
+        <v>30</v>
+      </c>
+      <c r="Z11" s="8">
+        <v>30</v>
+      </c>
+      <c r="AA11" s="8">
+        <v>30</v>
+      </c>
+      <c r="AB11" s="8">
+        <v>30</v>
+      </c>
+      <c r="AC11" s="8">
+        <v>30</v>
+      </c>
+      <c r="AD11" s="8">
+        <v>30</v>
+      </c>
+      <c r="AG11" s="11">
+        <f t="shared" si="16"/>
+        <v>209</v>
+      </c>
+      <c r="AH11" s="11">
+        <f t="shared" si="17"/>
+        <v>112</v>
+      </c>
+      <c r="AI11" s="11">
+        <f t="shared" si="27"/>
+        <v>152</v>
+      </c>
+      <c r="AJ11" s="11">
+        <f t="shared" si="28"/>
+        <v>105</v>
+      </c>
+      <c r="AK11" s="11">
+        <f t="shared" si="18"/>
+        <v>120</v>
+      </c>
+      <c r="AL11" s="11">
+        <f t="shared" si="29"/>
+        <v>120</v>
+      </c>
     </row>
     <row r="12" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
+      </c>
+      <c r="G12" s="11">
+        <v>0</v>
       </c>
       <c r="H12" s="11">
         <v>0</v>
@@ -1903,7 +2297,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -1929,10 +2323,14 @@
       <c r="AB12" s="8"/>
       <c r="AC12" s="8"/>
       <c r="AD12" s="16"/>
+      <c r="AH12" s="7"/>
     </row>
     <row r="13" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
+      </c>
+      <c r="G13" s="11">
+        <v>0</v>
       </c>
       <c r="H13" s="11">
         <v>326</v>
@@ -1976,32 +2374,37 @@
       <c r="AB13" s="8"/>
       <c r="AC13" s="8"/>
       <c r="AD13" s="16"/>
+      <c r="AH13" s="7"/>
     </row>
     <row r="14" spans="1:44" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
+      </c>
+      <c r="G14" s="9">
+        <f t="shared" ref="G14" si="30">G8+G9+G10+G11+G12+G13</f>
+        <v>312.59500000000003</v>
       </c>
       <c r="H14" s="9">
-        <f t="shared" ref="H14:M14" si="21">H8+H9+H10+H11+H12+H13</f>
+        <f t="shared" ref="H14:M14" si="31">H8+H9+H10+H11+H12+H13</f>
         <v>706</v>
       </c>
       <c r="I14" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>663</v>
       </c>
       <c r="J14" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>703</v>
       </c>
       <c r="K14" s="5">
         <v>704</v>
       </c>
       <c r="L14" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>931</v>
       </c>
       <c r="M14" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>888</v>
       </c>
       <c r="N14" s="5">
@@ -2023,60 +2426,78 @@
         <v>790</v>
       </c>
       <c r="S14" s="5">
-        <f t="shared" ref="S14" si="22">S8+S9+S10+S11+S12+S13</f>
+        <f t="shared" ref="S14" si="32">S8+S9+S10+S11+S12+S13</f>
         <v>954</v>
       </c>
       <c r="T14" s="9">
         <v>1008</v>
       </c>
       <c r="U14" s="9">
-        <f>T14*1.2</f>
-        <v>1209.5999999999999</v>
+        <f>U8+U9+U10+U11+U13</f>
+        <v>1177.26</v>
       </c>
       <c r="V14" s="9">
-        <f t="shared" ref="V14:AD14" si="23">U14*1.2</f>
-        <v>1451.5199999999998</v>
+        <f t="shared" ref="V14:AD14" si="33">V8+V9+V10+V11+V13</f>
+        <v>1191.8052</v>
       </c>
       <c r="W14" s="9">
-        <f t="shared" si="23"/>
-        <v>1741.8239999999996</v>
+        <f t="shared" si="33"/>
+        <v>1206.641304</v>
       </c>
       <c r="X14" s="9">
-        <f t="shared" si="23"/>
-        <v>2090.1887999999994</v>
+        <f t="shared" si="33"/>
+        <v>1221.7741300799998</v>
       </c>
       <c r="Y14" s="9">
-        <f t="shared" si="23"/>
-        <v>2508.2265599999992</v>
+        <f t="shared" si="33"/>
+        <v>1237.2096126816</v>
       </c>
       <c r="Z14" s="9">
-        <f t="shared" si="23"/>
-        <v>3009.8718719999988</v>
+        <f t="shared" si="33"/>
+        <v>1221.465420427968</v>
       </c>
       <c r="AA14" s="9">
-        <f t="shared" si="23"/>
-        <v>3611.8462463999986</v>
+        <f t="shared" si="33"/>
+        <v>1206.0361120194086</v>
       </c>
       <c r="AB14" s="9">
-        <f t="shared" si="23"/>
-        <v>4334.2154956799977</v>
+        <f t="shared" si="33"/>
+        <v>1190.9153897790204</v>
       </c>
       <c r="AC14" s="9">
-        <f t="shared" si="23"/>
-        <v>5201.0585948159969</v>
+        <f t="shared" si="33"/>
+        <v>1176.0970819834401</v>
       </c>
       <c r="AD14" s="9">
-        <f t="shared" si="23"/>
-        <v>6241.2703137791959</v>
+        <f t="shared" si="33"/>
+        <v>1161.5751403437712</v>
       </c>
       <c r="AE14" s="9"/>
       <c r="AF14" s="9"/>
-      <c r="AG14" s="9"/>
-      <c r="AH14" s="9"/>
-      <c r="AI14" s="9"/>
-      <c r="AJ14" s="9"/>
-      <c r="AK14" s="9"/>
-      <c r="AL14" s="9"/>
+      <c r="AG14" s="9">
+        <f t="shared" ref="AG14" si="34">AG8+AG9+AG10+AG11+AG13</f>
+        <v>1935.5950000000003</v>
+      </c>
+      <c r="AH14" s="9">
+        <f t="shared" ref="AH14" si="35">AH8+AH9+AH10+AH11+AH13</f>
+        <v>3507</v>
+      </c>
+      <c r="AI14" s="9">
+        <f t="shared" ref="AI14" si="36">AI8+AI9+AI10+AI11+AI13</f>
+        <v>3700</v>
+      </c>
+      <c r="AJ14" s="9">
+        <f t="shared" ref="AJ14" si="37">AJ8+AJ9+AJ10+AJ11+AJ13</f>
+        <v>4233.0652</v>
+      </c>
+      <c r="AK14" s="9">
+        <f t="shared" ref="AK14:AL14" si="38">AK8+AK9+AK10+AK11+AK13</f>
+        <v>4887.0904671895678</v>
+      </c>
+      <c r="AL14" s="9">
+        <f>AL8+AL9+AL10+AL11+AL13</f>
+        <v>4734.6237241256404</v>
+      </c>
       <c r="AM14" s="9"/>
       <c r="AN14" s="9"/>
       <c r="AO14" s="9"/>
@@ -2086,7 +2507,11 @@
     </row>
     <row r="15" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
+      </c>
+      <c r="G15" s="11">
+        <f>G7-G14</f>
+        <v>171.40499999999997</v>
       </c>
       <c r="H15" s="11">
         <v>20</v>
@@ -2127,36 +2552,77 @@
       <c r="T15" s="8">
         <v>-268</v>
       </c>
-      <c r="U15">
-        <v>-252</v>
-      </c>
-      <c r="V15">
-        <v>-172</v>
-      </c>
-      <c r="W15">
-        <v>-297</v>
-      </c>
-      <c r="X15">
-        <v>-204</v>
-      </c>
-      <c r="Y15">
-        <v>-543</v>
-      </c>
-      <c r="Z15">
-        <v>-76</v>
+      <c r="U15" s="8">
+        <f>U7-U14</f>
+        <v>-241.70999999999992</v>
+      </c>
+      <c r="V15" s="8">
+        <f t="shared" ref="V15:AD15" si="39">V7-V14</f>
+        <v>-166.51769999999988</v>
+      </c>
+      <c r="W15" s="8">
+        <f t="shared" si="39"/>
+        <v>-73.833428999999796</v>
+      </c>
+      <c r="X15" s="8">
+        <f t="shared" si="39"/>
+        <v>36.75573867000071</v>
+      </c>
+      <c r="Y15" s="8">
+        <f t="shared" si="39"/>
+        <v>196.71650950590038</v>
+      </c>
+      <c r="Z15" s="8">
+        <f t="shared" si="39"/>
+        <v>410.94574386890758</v>
       </c>
       <c r="AA15" s="8">
-        <v>-151</v>
-      </c>
-      <c r="AB15">
-        <v>-185</v>
-      </c>
-      <c r="AC15" s="8"/>
-      <c r="AD15" s="16"/>
+        <f t="shared" si="39"/>
+        <v>651.45682009231086</v>
+      </c>
+      <c r="AB15" s="8">
+        <f t="shared" si="39"/>
+        <v>895.45446349828512</v>
+      </c>
+      <c r="AC15" s="8">
+        <f t="shared" si="39"/>
+        <v>1164.1937659737314</v>
+      </c>
+      <c r="AD15" s="8">
+        <f t="shared" si="39"/>
+        <v>1460.2930022288592</v>
+      </c>
+      <c r="AG15" s="11">
+        <f t="shared" ref="AG14:AG20" si="40">SUM(G15:J15)</f>
+        <v>308.40499999999997</v>
+      </c>
+      <c r="AH15" s="11">
+        <f t="shared" ref="AH14:AH20" si="41">SUM(K15:N15)</f>
+        <v>-738</v>
+      </c>
+      <c r="AI15" s="11">
+        <f t="shared" ref="AI14:AJ20" si="42">SUM(L15:O15)</f>
+        <v>-925</v>
+      </c>
+      <c r="AJ15" s="11">
+        <f t="shared" ref="AJ15:AJ19" si="43">SUM(S15:V15)</f>
+        <v>-861.2276999999998</v>
+      </c>
+      <c r="AK15" s="11">
+        <f t="shared" ref="AK15:AK19" si="44">SUM(W15:Z15)</f>
+        <v>570.58456304480887</v>
+      </c>
+      <c r="AL15" s="11">
+        <f>SUM(AA15:AD15)</f>
+        <v>4171.3980517931868</v>
+      </c>
     </row>
     <row r="16" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
+      </c>
+      <c r="G16" s="11">
+        <v>-1</v>
       </c>
       <c r="H16" s="11">
         <v>-572</v>
@@ -2209,556 +2675,762 @@
         <v>-31</v>
       </c>
       <c r="Z16">
-        <v>-22</v>
-      </c>
-      <c r="AA16" s="8"/>
+        <v>-50</v>
+      </c>
+      <c r="AA16">
+        <v>-50</v>
+      </c>
       <c r="AB16">
-        <v>-24</v>
-      </c>
-      <c r="AC16" s="8"/>
-      <c r="AD16" s="16"/>
-    </row>
-    <row r="17" spans="2:70" x14ac:dyDescent="0.25">
+        <v>-50</v>
+      </c>
+      <c r="AC16">
+        <v>-50</v>
+      </c>
+      <c r="AD16">
+        <v>-50</v>
+      </c>
+      <c r="AG16" s="11">
+        <f t="shared" si="40"/>
+        <v>-1162</v>
+      </c>
+      <c r="AH16" s="11">
+        <f t="shared" si="41"/>
+        <v>-125</v>
+      </c>
+      <c r="AI16" s="11">
+        <f t="shared" si="42"/>
+        <v>-129</v>
+      </c>
+      <c r="AJ16" s="11">
+        <f t="shared" si="43"/>
+        <v>-102</v>
+      </c>
+      <c r="AK16" s="11">
+        <f t="shared" si="44"/>
+        <v>-132</v>
+      </c>
+      <c r="AL16" s="11">
+        <f t="shared" ref="AL15:AL19" si="45">SUM(AA16:AD16)</f>
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="17" spans="2:101" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
-        <v>40</v>
+        <v>44</v>
+      </c>
+      <c r="G17" s="11">
+        <f>G15+G16</f>
+        <v>170.40499999999997</v>
       </c>
       <c r="H17" s="11">
-        <v>3</v>
+        <f t="shared" ref="H17:U17" si="46">H15+H16</f>
+        <v>-552</v>
       </c>
       <c r="I17" s="11">
-        <v>3</v>
+        <f t="shared" si="46"/>
+        <v>-406</v>
       </c>
       <c r="J17" s="11">
-        <v>-39</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
+        <f t="shared" si="46"/>
+        <v>-66</v>
+      </c>
+      <c r="K17" s="11">
+        <f t="shared" si="46"/>
+        <v>-38</v>
+      </c>
+      <c r="L17" s="11">
+        <f t="shared" si="46"/>
+        <v>-302</v>
+      </c>
+      <c r="M17" s="11">
+        <f t="shared" si="46"/>
+        <v>-200</v>
+      </c>
+      <c r="N17" s="11">
+        <f t="shared" si="46"/>
+        <v>-323</v>
+      </c>
+      <c r="O17" s="11">
+        <f t="shared" si="46"/>
+        <v>-229</v>
+      </c>
+      <c r="P17" s="11">
+        <f t="shared" si="46"/>
+        <v>-574</v>
+      </c>
+      <c r="Q17" s="11">
+        <f t="shared" si="46"/>
+        <v>-98</v>
+      </c>
+      <c r="R17" s="11">
+        <f t="shared" si="46"/>
+        <v>-151</v>
+      </c>
+      <c r="S17" s="11">
+        <f t="shared" si="46"/>
+        <v>-209</v>
+      </c>
+      <c r="T17" s="11">
+        <v>-324</v>
+      </c>
+      <c r="U17" s="11">
+        <f t="shared" si="46"/>
+        <v>-291.70999999999992</v>
+      </c>
+      <c r="V17" s="11">
+        <f t="shared" ref="V17" si="47">V15+V16</f>
+        <v>-194.51769999999988</v>
+      </c>
+      <c r="W17" s="11">
+        <f t="shared" ref="W17" si="48">W15+W16</f>
+        <v>-99.833428999999796</v>
+      </c>
+      <c r="X17" s="11">
+        <f t="shared" ref="X17" si="49">X15+X16</f>
+        <v>11.75573867000071</v>
+      </c>
+      <c r="Y17" s="11">
+        <f t="shared" ref="Y17" si="50">Y15+Y16</f>
+        <v>165.71650950590038</v>
+      </c>
+      <c r="Z17" s="11">
+        <f t="shared" ref="Z17" si="51">Z15+Z16</f>
+        <v>360.94574386890758</v>
+      </c>
+      <c r="AA17" s="11">
+        <f t="shared" ref="AA17" si="52">AA15+AA16</f>
+        <v>601.45682009231086</v>
+      </c>
+      <c r="AB17" s="11">
+        <f t="shared" ref="AB17" si="53">AB15+AB16</f>
+        <v>845.45446349828512</v>
+      </c>
+      <c r="AC17" s="11">
+        <f t="shared" ref="AC17" si="54">AC15+AC16</f>
+        <v>1114.1937659737314</v>
+      </c>
+      <c r="AD17" s="11">
+        <f t="shared" ref="AD17" si="55">AD15+AD16</f>
+        <v>1410.2930022288592</v>
+      </c>
+      <c r="AG17" s="11">
+        <f t="shared" si="40"/>
+        <v>-853.59500000000003</v>
+      </c>
+      <c r="AH17" s="11">
+        <f t="shared" si="41"/>
+        <v>-863</v>
+      </c>
+      <c r="AI17" s="11">
+        <f t="shared" si="42"/>
+        <v>-1054</v>
+      </c>
+      <c r="AJ17" s="11">
+        <f t="shared" si="43"/>
+        <v>-1019.2276999999998</v>
+      </c>
+      <c r="AK17" s="11">
+        <f t="shared" si="44"/>
+        <v>438.58456304480887</v>
+      </c>
+      <c r="AL17" s="11">
+        <f t="shared" si="45"/>
+        <v>3971.3980517931868</v>
+      </c>
+    </row>
+    <row r="18" spans="2:101" x14ac:dyDescent="0.25">
+      <c r="B18" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="11">
+        <v>19</v>
+      </c>
+      <c r="H18" s="11">
+        <v>9</v>
+      </c>
+      <c r="I18" s="11">
+        <v>7</v>
+      </c>
+      <c r="J18" s="11">
+        <v>-2</v>
+      </c>
+      <c r="K18" s="11">
+        <v>-2</v>
+      </c>
+      <c r="L18">
+        <v>-44</v>
+      </c>
+      <c r="M18">
+        <v>-46</v>
+      </c>
+      <c r="N18">
+        <v>41</v>
+      </c>
+      <c r="O18">
+        <v>-23</v>
+      </c>
+      <c r="P18">
+        <v>-33</v>
+      </c>
+      <c r="Q18">
+        <v>-60</v>
+      </c>
+      <c r="R18" s="11">
+        <v>-33</v>
+      </c>
+      <c r="S18">
+        <v>50</v>
+      </c>
+      <c r="T18" s="11">
+        <v>41</v>
+      </c>
+      <c r="U18">
+        <v>-44</v>
+      </c>
+      <c r="V18">
+        <v>-46</v>
+      </c>
+      <c r="W18">
+        <v>41</v>
+      </c>
+      <c r="X18">
+        <v>-23</v>
+      </c>
+      <c r="Y18">
+        <v>-33</v>
+      </c>
+      <c r="Z18">
+        <v>-60</v>
+      </c>
+      <c r="AA18" s="11">
+        <v>-33</v>
+      </c>
+      <c r="AB18">
+        <v>50</v>
+      </c>
+      <c r="AC18">
+        <v>50</v>
+      </c>
+      <c r="AD18">
+        <v>50</v>
+      </c>
+      <c r="AG18" s="11">
+        <f t="shared" si="40"/>
+        <v>33</v>
+      </c>
+      <c r="AH18" s="11">
+        <f t="shared" si="41"/>
+        <v>-51</v>
+      </c>
+      <c r="AI18" s="11">
+        <f t="shared" si="42"/>
+        <v>-72</v>
+      </c>
+      <c r="AJ18" s="11">
+        <f t="shared" si="43"/>
         <v>1</v>
       </c>
-      <c r="N17">
-        <v>-1</v>
-      </c>
-      <c r="O17">
-        <v>1</v>
-      </c>
-      <c r="P17">
-        <v>-2</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17" s="8"/>
-      <c r="S17">
-        <v>-3</v>
-      </c>
-      <c r="T17" s="8"/>
-      <c r="U17">
-        <v>0</v>
-      </c>
-      <c r="V17">
-        <v>1</v>
-      </c>
-      <c r="W17">
-        <v>-1</v>
-      </c>
-      <c r="X17">
-        <v>1</v>
-      </c>
-      <c r="Y17">
-        <v>-2</v>
-      </c>
-      <c r="Z17">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="8"/>
-      <c r="AB17">
-        <v>-3</v>
-      </c>
-      <c r="AC17" s="8"/>
-      <c r="AD17" s="16"/>
-    </row>
-    <row r="18" spans="2:70" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H18" s="11">
-        <f t="shared" ref="H18:P18" si="24">H15+H16+H17</f>
-        <v>-549</v>
-      </c>
-      <c r="I18" s="11">
-        <f t="shared" si="24"/>
-        <v>-403</v>
-      </c>
-      <c r="J18" s="11">
-        <f t="shared" si="24"/>
-        <v>-105</v>
-      </c>
-      <c r="K18" s="7">
-        <v>-106</v>
-      </c>
-      <c r="L18" s="7">
-        <f t="shared" si="24"/>
-        <v>-302</v>
-      </c>
-      <c r="M18" s="7">
-        <f t="shared" si="24"/>
-        <v>-199</v>
-      </c>
-      <c r="N18" s="7">
-        <f t="shared" si="24"/>
-        <v>-324</v>
-      </c>
-      <c r="O18" s="7">
-        <f t="shared" si="24"/>
-        <v>-228</v>
-      </c>
-      <c r="P18" s="7">
-        <f t="shared" si="24"/>
-        <v>-576</v>
-      </c>
-      <c r="Q18" s="7">
-        <v>-152</v>
-      </c>
-      <c r="R18" s="11">
-        <v>-577</v>
-      </c>
-      <c r="S18" s="7">
-        <f t="shared" ref="S18" si="25">S15+S16+S17</f>
-        <v>-212</v>
-      </c>
-      <c r="T18" s="11">
-        <v>-324</v>
-      </c>
-      <c r="U18" s="11">
-        <f>U14-U7</f>
-        <v>176.79999999999973</v>
-      </c>
-      <c r="V18" s="11">
-        <f t="shared" ref="V18:AD18" si="26">V14-V7</f>
-        <v>430.71999999999969</v>
-      </c>
-      <c r="W18" s="11">
-        <f t="shared" si="26"/>
-        <v>730.62399999999957</v>
-      </c>
-      <c r="X18" s="11">
-        <f t="shared" si="26"/>
-        <v>502.98879999999917</v>
-      </c>
-      <c r="Y18" s="11">
-        <f t="shared" si="26"/>
-        <v>-22.077440000001388</v>
-      </c>
-      <c r="Z18" s="11">
-        <f t="shared" si="26"/>
-        <v>-1026.6337280000021</v>
-      </c>
-      <c r="AA18" s="11">
-        <f t="shared" si="26"/>
-        <v>-41.775513600002341</v>
-      </c>
-      <c r="AB18" s="11">
-        <f t="shared" si="26"/>
-        <v>1018.9591756799969</v>
-      </c>
-      <c r="AC18" s="11">
-        <f t="shared" si="26"/>
-        <v>2182.232150015996</v>
-      </c>
-      <c r="AD18" s="11">
-        <f t="shared" si="26"/>
-        <v>3478.7020296191949</v>
-      </c>
-    </row>
-    <row r="19" spans="2:70" x14ac:dyDescent="0.25">
+      <c r="AK18" s="11">
+        <f t="shared" si="44"/>
+        <v>-75</v>
+      </c>
+      <c r="AL18" s="11">
+        <f t="shared" si="45"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="2:101" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
-        <v>41</v>
+        <v>45</v>
+      </c>
+      <c r="G19" s="11">
+        <f t="shared" ref="G19" si="56">G18/G17</f>
+        <v>0.11149907573134593</v>
       </c>
       <c r="H19" s="11">
-        <v>9</v>
+        <f t="shared" ref="H19:Q19" si="57">H18/H17</f>
+        <v>-1.6304347826086956E-2</v>
       </c>
       <c r="I19" s="11">
-        <v>7</v>
-      </c>
-      <c r="J19" s="11">
-        <v>-2</v>
-      </c>
-      <c r="K19" s="11">
-        <v>-2</v>
-      </c>
-      <c r="L19">
-        <v>-44</v>
-      </c>
-      <c r="M19">
-        <v>-46</v>
-      </c>
-      <c r="N19">
-        <v>41</v>
-      </c>
-      <c r="O19">
-        <v>-23</v>
-      </c>
-      <c r="P19">
-        <v>-33</v>
-      </c>
-      <c r="Q19">
-        <v>-60</v>
-      </c>
-      <c r="R19" s="11">
-        <v>-33</v>
-      </c>
-      <c r="S19">
-        <v>50</v>
-      </c>
-      <c r="T19" s="11">
-        <v>41</v>
-      </c>
-      <c r="U19">
-        <v>-44</v>
-      </c>
-      <c r="V19">
-        <v>-46</v>
-      </c>
-      <c r="W19">
-        <v>41</v>
-      </c>
-      <c r="X19">
-        <v>-23</v>
-      </c>
-      <c r="Y19">
-        <v>-33</v>
-      </c>
-      <c r="Z19">
-        <v>-60</v>
-      </c>
-      <c r="AA19" s="11">
-        <v>-33</v>
-      </c>
-      <c r="AB19">
-        <v>50</v>
-      </c>
-      <c r="AC19" s="8"/>
-      <c r="AD19" s="16"/>
-    </row>
-    <row r="20" spans="2:70" x14ac:dyDescent="0.25">
-      <c r="B20" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G20" s="4"/>
-      <c r="H20" s="11">
-        <f t="shared" ref="H20:Q20" si="27">H19/H18</f>
-        <v>-1.6393442622950821E-2</v>
-      </c>
-      <c r="I20" s="11">
-        <f t="shared" si="27"/>
-        <v>-1.7369727047146403E-2</v>
-      </c>
-      <c r="J20" s="12">
-        <f t="shared" si="27"/>
-        <v>1.9047619047619049E-2</v>
-      </c>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="57"/>
+        <v>-1.7241379310344827E-2</v>
+      </c>
+      <c r="J19" s="12">
+        <f t="shared" si="57"/>
+        <v>3.0303030303030304E-2</v>
+      </c>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4">
+        <f t="shared" si="57"/>
         <v>0.14569536423841059</v>
       </c>
-      <c r="M20" s="4">
-        <f t="shared" si="27"/>
-        <v>0.23115577889447236</v>
-      </c>
-      <c r="N20" s="4">
-        <f t="shared" si="27"/>
+      <c r="M19" s="4">
+        <f t="shared" si="57"/>
+        <v>0.23</v>
+      </c>
+      <c r="N19" s="4">
+        <f t="shared" si="57"/>
+        <v>-0.12693498452012383</v>
+      </c>
+      <c r="O19" s="4">
+        <f t="shared" si="57"/>
+        <v>0.10043668122270742</v>
+      </c>
+      <c r="P19" s="4">
+        <f t="shared" si="57"/>
+        <v>5.7491289198606271E-2</v>
+      </c>
+      <c r="Q19" s="4">
+        <f t="shared" si="57"/>
+        <v>0.61224489795918369</v>
+      </c>
+      <c r="R19" s="8"/>
+      <c r="S19" s="4">
+        <f t="shared" ref="S19:AD19" si="58">S18/S17</f>
+        <v>-0.23923444976076555</v>
+      </c>
+      <c r="T19" s="4">
+        <f t="shared" si="58"/>
         <v>-0.12654320987654322</v>
       </c>
-      <c r="O20" s="4">
-        <f t="shared" si="27"/>
-        <v>0.10087719298245613</v>
-      </c>
-      <c r="P20" s="4">
-        <f t="shared" si="27"/>
-        <v>5.7291666666666664E-2</v>
-      </c>
-      <c r="Q20" s="4">
-        <f t="shared" si="27"/>
-        <v>0.39473684210526316</v>
-      </c>
-      <c r="R20" s="8"/>
-      <c r="S20" s="4">
-        <f t="shared" ref="S20" si="28">S19/S18</f>
-        <v>-0.23584905660377359</v>
-      </c>
-      <c r="T20" s="8"/>
-      <c r="U20" s="8"/>
-      <c r="V20" s="8"/>
-      <c r="W20" s="8"/>
-      <c r="X20" s="8"/>
-      <c r="Y20" s="8"/>
-      <c r="Z20" s="8"/>
-      <c r="AA20" s="8"/>
-      <c r="AB20" s="8"/>
-      <c r="AC20" s="8"/>
-      <c r="AD20" s="16"/>
-    </row>
-    <row r="21" spans="2:70" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H21" s="9">
-        <f t="shared" ref="H21:P21" si="29">H18-H19</f>
-        <v>-558</v>
-      </c>
-      <c r="I21" s="9">
-        <f t="shared" si="29"/>
-        <v>-410</v>
-      </c>
-      <c r="J21" s="9">
-        <f t="shared" si="29"/>
-        <v>-103</v>
-      </c>
-      <c r="K21" s="9">
+      <c r="U19" s="4">
+        <f t="shared" si="58"/>
+        <v>0.15083473312536427</v>
+      </c>
+      <c r="V19" s="4">
+        <f t="shared" si="58"/>
+        <v>0.2364823355406733</v>
+      </c>
+      <c r="W19" s="4">
+        <f t="shared" si="58"/>
+        <v>-0.4106840805798635</v>
+      </c>
+      <c r="X19" s="4">
+        <f t="shared" si="58"/>
+        <v>-1.9564912631728832</v>
+      </c>
+      <c r="Y19" s="4">
+        <f t="shared" si="58"/>
+        <v>-0.19913525875238777</v>
+      </c>
+      <c r="Z19" s="4">
+        <f t="shared" si="58"/>
+        <v>-0.16622996951528396</v>
+      </c>
+      <c r="AA19" s="4">
+        <f t="shared" si="58"/>
+        <v>-5.4866781616900111E-2</v>
+      </c>
+      <c r="AB19" s="4">
+        <f t="shared" si="58"/>
+        <v>5.9139790679100739E-2</v>
+      </c>
+      <c r="AC19" s="4">
+        <f t="shared" si="58"/>
+        <v>4.487549789538027E-2</v>
+      </c>
+      <c r="AD19" s="4">
+        <f t="shared" si="58"/>
+        <v>3.5453625538082414E-2</v>
+      </c>
+      <c r="AG19" s="11"/>
+      <c r="AH19" s="11"/>
+      <c r="AI19" s="11"/>
+      <c r="AJ19" s="11"/>
+      <c r="AK19" s="11"/>
+      <c r="AL19" s="11"/>
+    </row>
+    <row r="20" spans="2:101" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G20" s="9">
+        <f t="shared" ref="G20" si="59">G17-G18</f>
+        <v>151.40499999999997</v>
+      </c>
+      <c r="H20" s="9">
+        <f t="shared" ref="H20:P20" si="60">H17-H18</f>
+        <v>-561</v>
+      </c>
+      <c r="I20" s="9">
+        <f t="shared" si="60"/>
+        <v>-413</v>
+      </c>
+      <c r="J20" s="9">
+        <f t="shared" si="60"/>
+        <v>-64</v>
+      </c>
+      <c r="K20" s="9">
         <v>-104</v>
       </c>
-      <c r="L21" s="9">
-        <f t="shared" si="29"/>
+      <c r="L20" s="9">
+        <f t="shared" si="60"/>
         <v>-258</v>
       </c>
-      <c r="M21" s="9">
-        <f t="shared" ref="M21" si="30">M18-M19</f>
-        <v>-153</v>
-      </c>
-      <c r="N21" s="9">
-        <f t="shared" si="29"/>
+      <c r="M20" s="9">
+        <f t="shared" ref="M20" si="61">M17-M18</f>
+        <v>-154</v>
+      </c>
+      <c r="N20" s="9">
+        <f t="shared" si="60"/>
+        <v>-364</v>
+      </c>
+      <c r="O20" s="9">
+        <f t="shared" si="60"/>
+        <v>-206</v>
+      </c>
+      <c r="P20" s="9">
+        <f t="shared" si="60"/>
+        <v>-541</v>
+      </c>
+      <c r="Q20" s="9">
+        <f>Q17-Q18</f>
+        <v>-38</v>
+      </c>
+      <c r="R20" s="9">
+        <v>-543</v>
+      </c>
+      <c r="S20" s="9">
+        <f t="shared" ref="S20" si="62">S17-S18</f>
+        <v>-259</v>
+      </c>
+      <c r="T20" s="9">
         <v>-365</v>
       </c>
-      <c r="O21" s="9">
-        <f t="shared" si="29"/>
-        <v>-205</v>
-      </c>
-      <c r="P21" s="9">
-        <f t="shared" si="29"/>
-        <v>-543</v>
-      </c>
-      <c r="Q21" s="9">
-        <f>Q18-Q19</f>
-        <v>-92</v>
-      </c>
-      <c r="R21" s="9">
-        <v>-543</v>
-      </c>
-      <c r="S21" s="9">
-        <f t="shared" ref="S21" si="31">S18-S19</f>
-        <v>-262</v>
-      </c>
-      <c r="T21" s="9">
-        <v>-365</v>
-      </c>
-      <c r="U21" s="9">
-        <f t="shared" ref="U21:AD21" si="32">U18-U19</f>
-        <v>220.79999999999973</v>
-      </c>
-      <c r="V21" s="9">
-        <f t="shared" si="32"/>
-        <v>476.71999999999969</v>
-      </c>
-      <c r="W21" s="9">
-        <f t="shared" si="32"/>
-        <v>689.62399999999957</v>
-      </c>
-      <c r="X21" s="9">
-        <f t="shared" si="32"/>
-        <v>525.98879999999917</v>
-      </c>
-      <c r="Y21" s="9">
-        <f t="shared" si="32"/>
-        <v>10.922559999998612</v>
-      </c>
-      <c r="Z21" s="9">
-        <f t="shared" si="32"/>
-        <v>-966.63372800000207</v>
-      </c>
-      <c r="AA21" s="9">
-        <f t="shared" si="32"/>
-        <v>-8.7755136000023413</v>
-      </c>
-      <c r="AB21" s="9">
-        <f t="shared" si="32"/>
-        <v>968.95917567999686</v>
-      </c>
-      <c r="AC21" s="9">
-        <f t="shared" si="32"/>
-        <v>2182.232150015996</v>
-      </c>
-      <c r="AD21" s="9">
-        <f t="shared" si="32"/>
-        <v>3478.7020296191949</v>
-      </c>
-      <c r="AE21" s="9">
-        <f>AD21*0.8</f>
-        <v>2782.9616236953561</v>
-      </c>
-      <c r="AF21" s="9">
-        <f t="shared" ref="AF21:AH21" si="33">AE21*0.8</f>
-        <v>2226.3692989562851</v>
-      </c>
-      <c r="AG21" s="9">
-        <f t="shared" si="33"/>
-        <v>1781.0954391650282</v>
-      </c>
-      <c r="AH21" s="9">
-        <f t="shared" si="33"/>
-        <v>1424.8763513320228</v>
-      </c>
-      <c r="AI21" s="9">
-        <f>AH21*(1+$W$32)</f>
-        <v>1396.3788243053823</v>
-      </c>
-      <c r="AJ21" s="9">
-        <f>AI21*(1+$W$32)</f>
-        <v>1368.4512478192746</v>
-      </c>
-      <c r="AK21" s="9">
-        <f t="shared" ref="AK21:BR21" si="34">AJ21*(1+$W$32)</f>
-        <v>1341.082222862889</v>
-      </c>
-      <c r="AL21" s="9">
-        <f t="shared" si="34"/>
-        <v>1314.2605784056311</v>
-      </c>
-      <c r="AM21" s="9">
-        <f t="shared" si="34"/>
-        <v>1287.9753668375185</v>
-      </c>
-      <c r="AN21" s="9">
-        <f t="shared" si="34"/>
-        <v>1262.2158595007681</v>
-      </c>
-      <c r="AO21" s="9">
-        <f t="shared" si="34"/>
-        <v>1236.9715423107527</v>
-      </c>
-      <c r="AP21" s="9">
-        <f t="shared" si="34"/>
-        <v>1212.2321114645376</v>
-      </c>
-      <c r="AQ21" s="9">
-        <f t="shared" si="34"/>
-        <v>1187.9874692352469</v>
-      </c>
-      <c r="AR21" s="9">
-        <f t="shared" si="34"/>
-        <v>1164.2277198505419</v>
-      </c>
-      <c r="AS21" s="9">
-        <f t="shared" si="34"/>
-        <v>1140.943165453531</v>
-      </c>
-      <c r="AT21" s="9">
-        <f t="shared" si="34"/>
-        <v>1118.1243021444604</v>
-      </c>
-      <c r="AU21" s="9">
-        <f t="shared" si="34"/>
-        <v>1095.7618161015712</v>
-      </c>
-      <c r="AV21" s="9">
-        <f t="shared" si="34"/>
-        <v>1073.8465797795398</v>
-      </c>
-      <c r="AW21" s="9">
-        <f t="shared" si="34"/>
-        <v>1052.369648183949</v>
-      </c>
-      <c r="AX21" s="9">
-        <f t="shared" si="34"/>
-        <v>1031.3222552202701</v>
-      </c>
-      <c r="AY21" s="9">
-        <f t="shared" si="34"/>
-        <v>1010.6958101158647</v>
-      </c>
-      <c r="AZ21" s="9">
-        <f t="shared" si="34"/>
-        <v>990.48189391354731</v>
-      </c>
-      <c r="BA21" s="9">
-        <f t="shared" si="34"/>
-        <v>970.67225603527629</v>
-      </c>
-      <c r="BB21" s="9">
-        <f t="shared" si="34"/>
-        <v>951.25881091457074</v>
-      </c>
-      <c r="BC21" s="9">
-        <f t="shared" si="34"/>
-        <v>932.2336346962793</v>
-      </c>
-      <c r="BD21" s="9">
-        <f t="shared" si="34"/>
-        <v>913.5889620023537</v>
-      </c>
-      <c r="BE21" s="9">
-        <f t="shared" si="34"/>
-        <v>895.31718276230663</v>
-      </c>
-      <c r="BF21" s="9">
-        <f t="shared" si="34"/>
-        <v>877.4108391070605</v>
-      </c>
-      <c r="BG21" s="9">
-        <f t="shared" si="34"/>
-        <v>859.86262232491924</v>
-      </c>
-      <c r="BH21" s="9">
-        <f t="shared" si="34"/>
-        <v>842.66536987842085</v>
-      </c>
-      <c r="BI21" s="9">
-        <f t="shared" si="34"/>
-        <v>825.81206248085243</v>
-      </c>
-      <c r="BJ21" s="9">
-        <f t="shared" si="34"/>
-        <v>809.29582123123532</v>
-      </c>
-      <c r="BK21" s="9">
-        <f t="shared" si="34"/>
-        <v>793.10990480661064</v>
-      </c>
-      <c r="BL21" s="9">
-        <f t="shared" si="34"/>
-        <v>777.24770671047838</v>
-      </c>
-      <c r="BM21" s="9">
-        <f t="shared" si="34"/>
-        <v>761.70275257626884</v>
-      </c>
-      <c r="BN21" s="9">
-        <f t="shared" si="34"/>
-        <v>746.46869752474345</v>
-      </c>
-      <c r="BO21" s="9">
-        <f t="shared" si="34"/>
-        <v>731.53932357424856</v>
-      </c>
-      <c r="BP21" s="9">
-        <f t="shared" si="34"/>
-        <v>716.9085371027636</v>
-      </c>
-      <c r="BQ21" s="9">
-        <f t="shared" si="34"/>
-        <v>702.57036636070836</v>
-      </c>
-      <c r="BR21" s="9">
-        <f t="shared" si="34"/>
-        <v>688.51895903349418</v>
-      </c>
-    </row>
-    <row r="22" spans="2:70" x14ac:dyDescent="0.25">
-      <c r="B22" s="7" t="s">
+      <c r="U20" s="9">
+        <f t="shared" ref="U20:AD20" si="63">U17-U18</f>
+        <v>-247.70999999999992</v>
+      </c>
+      <c r="V20" s="9">
+        <f t="shared" si="63"/>
+        <v>-148.51769999999988</v>
+      </c>
+      <c r="W20" s="9">
+        <f t="shared" si="63"/>
+        <v>-140.8334289999998</v>
+      </c>
+      <c r="X20" s="9">
+        <f t="shared" si="63"/>
+        <v>34.75573867000071</v>
+      </c>
+      <c r="Y20" s="9">
+        <f t="shared" si="63"/>
+        <v>198.71650950590038</v>
+      </c>
+      <c r="Z20" s="9">
+        <f t="shared" si="63"/>
+        <v>420.94574386890758</v>
+      </c>
+      <c r="AA20" s="9">
+        <f t="shared" si="63"/>
+        <v>634.45682009231086</v>
+      </c>
+      <c r="AB20" s="9">
+        <f t="shared" si="63"/>
+        <v>795.45446349828512</v>
+      </c>
+      <c r="AC20" s="9">
+        <f t="shared" si="63"/>
+        <v>1064.1937659737314</v>
+      </c>
+      <c r="AD20" s="9">
+        <f t="shared" si="63"/>
+        <v>1360.2930022288592</v>
+      </c>
+      <c r="AG20" s="9">
+        <f>SUM(G20:J20)</f>
+        <v>-886.59500000000003</v>
+      </c>
+      <c r="AH20" s="9">
+        <f t="shared" si="41"/>
+        <v>-880</v>
+      </c>
+      <c r="AI20" s="9">
+        <f t="shared" si="42"/>
+        <v>-982</v>
+      </c>
+      <c r="AJ20" s="9">
+        <f>AJ17-AJ18</f>
+        <v>-1020.2276999999998</v>
+      </c>
+      <c r="AK20" s="9">
+        <f t="shared" ref="AK20:AL20" si="64">AK17-AK18</f>
+        <v>513.58456304480887</v>
+      </c>
+      <c r="AL20" s="9">
+        <f t="shared" si="64"/>
+        <v>3854.3980517931868</v>
+      </c>
+      <c r="AM20" s="9">
+        <f>AL20*1.05</f>
+        <v>4047.1179543828462</v>
+      </c>
+      <c r="AN20" s="9">
+        <f t="shared" ref="AN20:CW20" si="65">AM20*1.05</f>
+        <v>4249.473852101989</v>
+      </c>
+      <c r="AO20" s="9">
+        <f>AN20*1.1</f>
+        <v>4674.4212373121882</v>
+      </c>
+      <c r="AP20" s="9">
+        <f>AO20*1.1</f>
+        <v>5141.8633610434072</v>
+      </c>
+      <c r="AQ20" s="9">
+        <f>AP20*1.1</f>
+        <v>5656.0496971477487</v>
+      </c>
+      <c r="AR20" s="9">
+        <f>AQ20*1.1</f>
+        <v>6221.6546668625242</v>
+      </c>
+      <c r="AS20" s="9">
+        <f t="shared" ref="AS20:CW20" si="66">AR20*0.98</f>
+        <v>6097.2215735252739</v>
+      </c>
+      <c r="AT20" s="9">
+        <f t="shared" si="66"/>
+        <v>5975.2771420547688</v>
+      </c>
+      <c r="AU20" s="9">
+        <f t="shared" si="66"/>
+        <v>5855.7715992136737</v>
+      </c>
+      <c r="AV20" s="9">
+        <f t="shared" si="66"/>
+        <v>5738.6561672294001</v>
+      </c>
+      <c r="AW20" s="9">
+        <f t="shared" si="66"/>
+        <v>5623.8830438848117</v>
+      </c>
+      <c r="AX20" s="9">
+        <f t="shared" si="66"/>
+        <v>5511.4053830071152</v>
+      </c>
+      <c r="AY20" s="9">
+        <f t="shared" si="66"/>
+        <v>5401.1772753469731</v>
+      </c>
+      <c r="AZ20" s="9">
+        <f t="shared" si="66"/>
+        <v>5293.1537298400335</v>
+      </c>
+      <c r="BA20" s="9">
+        <f t="shared" si="66"/>
+        <v>5187.2906552432323</v>
+      </c>
+      <c r="BB20" s="9">
+        <f t="shared" si="66"/>
+        <v>5083.5448421383671</v>
+      </c>
+      <c r="BC20" s="9">
+        <f t="shared" si="66"/>
+        <v>4981.8739452955997</v>
+      </c>
+      <c r="BD20" s="9">
+        <f t="shared" si="66"/>
+        <v>4882.2364663896878</v>
+      </c>
+      <c r="BE20" s="9">
+        <f t="shared" si="66"/>
+        <v>4784.5917370618936</v>
+      </c>
+      <c r="BF20" s="9">
+        <f t="shared" si="66"/>
+        <v>4688.8999023206552</v>
+      </c>
+      <c r="BG20" s="9">
+        <f t="shared" si="66"/>
+        <v>4595.1219042742423</v>
+      </c>
+      <c r="BH20" s="9">
+        <f t="shared" si="66"/>
+        <v>4503.219466188757</v>
+      </c>
+      <c r="BI20" s="9">
+        <f t="shared" si="66"/>
+        <v>4413.1550768649822</v>
+      </c>
+      <c r="BJ20" s="9">
+        <f t="shared" si="66"/>
+        <v>4324.8919753276823</v>
+      </c>
+      <c r="BK20" s="9">
+        <f t="shared" si="66"/>
+        <v>4238.3941358211287</v>
+      </c>
+      <c r="BL20" s="9">
+        <f t="shared" si="66"/>
+        <v>4153.6262531047059</v>
+      </c>
+      <c r="BM20" s="9">
+        <f t="shared" si="66"/>
+        <v>4070.553728042612</v>
+      </c>
+      <c r="BN20" s="9">
+        <f t="shared" si="66"/>
+        <v>3989.1426534817597</v>
+      </c>
+      <c r="BO20" s="9">
+        <f t="shared" si="66"/>
+        <v>3909.3598004121245</v>
+      </c>
+      <c r="BP20" s="9">
+        <f t="shared" si="66"/>
+        <v>3831.1726044038819</v>
+      </c>
+      <c r="BQ20" s="9">
+        <f t="shared" si="66"/>
+        <v>3754.5491523158043</v>
+      </c>
+      <c r="BR20" s="9">
+        <f t="shared" si="66"/>
+        <v>3679.4581692694883</v>
+      </c>
+      <c r="BS20" s="9">
+        <f t="shared" si="66"/>
+        <v>3605.8690058840984</v>
+      </c>
+      <c r="BT20" s="9">
+        <f t="shared" si="66"/>
+        <v>3533.7516257664165</v>
+      </c>
+      <c r="BU20" s="9">
+        <f t="shared" si="66"/>
+        <v>3463.0765932510881</v>
+      </c>
+      <c r="BV20" s="9">
+        <f t="shared" si="66"/>
+        <v>3393.8150613860662</v>
+      </c>
+      <c r="BW20" s="9">
+        <f t="shared" si="66"/>
+        <v>3325.9387601583448</v>
+      </c>
+      <c r="BX20" s="9">
+        <f t="shared" si="66"/>
+        <v>3259.4199849551778</v>
+      </c>
+      <c r="BY20" s="9">
+        <f t="shared" si="66"/>
+        <v>3194.2315852560741</v>
+      </c>
+      <c r="BZ20" s="9">
+        <f t="shared" si="66"/>
+        <v>3130.3469535509525</v>
+      </c>
+      <c r="CA20" s="9">
+        <f t="shared" si="66"/>
+        <v>3067.7400144799335</v>
+      </c>
+      <c r="CB20" s="9">
+        <f t="shared" si="66"/>
+        <v>3006.3852141903349</v>
+      </c>
+      <c r="CC20" s="9">
+        <f t="shared" si="66"/>
+        <v>2946.257509906528</v>
+      </c>
+      <c r="CD20" s="9">
+        <f t="shared" si="66"/>
+        <v>2887.3323597083972</v>
+      </c>
+      <c r="CE20" s="9">
+        <f t="shared" si="66"/>
+        <v>2829.5857125142293</v>
+      </c>
+      <c r="CF20" s="9">
+        <f t="shared" si="66"/>
+        <v>2772.9939982639448</v>
+      </c>
+      <c r="CG20" s="9">
+        <f t="shared" si="66"/>
+        <v>2717.5341182986658</v>
+      </c>
+      <c r="CH20" s="9">
+        <f t="shared" si="66"/>
+        <v>2663.1834359326926</v>
+      </c>
+      <c r="CI20" s="9">
+        <f t="shared" si="66"/>
+        <v>2609.9197672140385</v>
+      </c>
+      <c r="CJ20" s="9">
+        <f t="shared" si="66"/>
+        <v>2557.7213718697576</v>
+      </c>
+      <c r="CK20" s="9">
+        <f t="shared" si="66"/>
+        <v>2506.5669444323626</v>
+      </c>
+      <c r="CL20" s="9">
+        <f t="shared" si="66"/>
+        <v>2456.4356055437152</v>
+      </c>
+      <c r="CM20" s="9">
+        <f t="shared" si="66"/>
+        <v>2407.3068934328408</v>
+      </c>
+      <c r="CN20" s="9">
+        <f t="shared" si="66"/>
+        <v>2359.160755564184</v>
+      </c>
+      <c r="CO20" s="9">
+        <f t="shared" si="66"/>
+        <v>2311.9775404529005</v>
+      </c>
+      <c r="CP20" s="9">
+        <f t="shared" si="66"/>
+        <v>2265.7379896438424</v>
+      </c>
+      <c r="CQ20" s="9">
+        <f t="shared" si="66"/>
+        <v>2220.4232298509655</v>
+      </c>
+      <c r="CR20" s="9">
+        <f t="shared" si="66"/>
+        <v>2176.0147652539463</v>
+      </c>
+      <c r="CS20" s="9">
+        <f t="shared" si="66"/>
+        <v>2132.4944699488674</v>
+      </c>
+      <c r="CT20" s="9">
+        <f t="shared" si="66"/>
+        <v>2089.84458054989</v>
+      </c>
+      <c r="CU20" s="9">
+        <f t="shared" si="66"/>
+        <v>2048.047688938892</v>
+      </c>
+      <c r="CV20" s="9">
+        <f t="shared" si="66"/>
+        <v>2007.0867351601141</v>
+      </c>
+      <c r="CW20" s="9">
+        <f t="shared" si="66"/>
+        <v>1966.9450004569119</v>
+      </c>
+    </row>
+    <row r="21" spans="2:101" x14ac:dyDescent="0.25">
+      <c r="B21" s="7" t="s">
         <v>5</v>
       </c>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8"/>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="8"/>
+      <c r="Z21" s="8"/>
+      <c r="AA21" s="8"/>
+      <c r="AB21" s="8"/>
+      <c r="AC21" s="8"/>
+      <c r="AD21" s="16"/>
+      <c r="AY21" s="5"/>
+    </row>
+    <row r="22" spans="2:101" x14ac:dyDescent="0.25">
       <c r="U22" s="8"/>
       <c r="V22" s="8"/>
       <c r="W22" s="8"/>
@@ -2769,9 +3441,14 @@
       <c r="AB22" s="8"/>
       <c r="AC22" s="8"/>
       <c r="AD22" s="16"/>
-      <c r="AY22" s="5"/>
-    </row>
-    <row r="23" spans="2:70" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="2:101" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>78</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
       <c r="U23" s="8"/>
       <c r="V23" s="8"/>
       <c r="W23" s="8"/>
@@ -2783,248 +3460,251 @@
       <c r="AC23" s="8"/>
       <c r="AD23" s="16"/>
     </row>
-    <row r="24" spans="2:70" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:101" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>82</v>
-      </c>
-      <c r="G24" s="4"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="U24" s="8"/>
-      <c r="V24" s="8"/>
-      <c r="W24" s="8"/>
-      <c r="X24" s="8"/>
-      <c r="Y24" s="8"/>
-      <c r="Z24" s="8"/>
-      <c r="AA24" s="8"/>
-      <c r="AB24" s="8"/>
-      <c r="AC24" s="8"/>
-      <c r="AD24" s="16"/>
-    </row>
-    <row r="25" spans="2:70" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>56</v>
-      </c>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4">
+        <v>52</v>
+      </c>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4">
         <f>L5/H5-1</f>
         <v>0.62237762237762229</v>
       </c>
-      <c r="M25" s="4">
-        <f t="shared" ref="M25" si="35">M5/I5-1</f>
+      <c r="M24" s="4">
+        <f>M5/I5-1</f>
         <v>0.55813953488372103</v>
       </c>
-      <c r="N25" s="4">
-        <f t="shared" ref="N25:T25" si="36">N5/J5-1</f>
+      <c r="N24" s="4">
+        <f>N5/J5-1</f>
         <v>0.22686025408348454</v>
       </c>
-      <c r="O25" s="4">
-        <f t="shared" si="36"/>
+      <c r="O24" s="4">
+        <f>O5/K5-1</f>
         <v>0.16515426497277685</v>
       </c>
-      <c r="P25" s="4">
-        <f t="shared" si="36"/>
+      <c r="P24" s="4">
+        <f>P5/L5-1</f>
         <v>-6.7528735632183867E-2</v>
       </c>
-      <c r="Q25" s="4">
-        <f t="shared" ca="1" si="36"/>
+      <c r="Q24" s="4">
+        <f ca="1">Q5/M5-1</f>
         <v>0</v>
       </c>
-      <c r="R25" s="4">
-        <f t="shared" si="36"/>
+      <c r="R24" s="4">
+        <f>R5/N5-1</f>
         <v>-3.9201183431952669E-2</v>
       </c>
-      <c r="S25" s="4">
-        <f t="shared" si="36"/>
+      <c r="S24" s="4">
+        <f>S5/O5-1</f>
         <v>4.1277258566978281E-2</v>
       </c>
-      <c r="T25" s="4">
-        <f t="shared" si="36"/>
+      <c r="T24" s="4">
+        <f>T5/P5-1</f>
         <v>4.2372881355932313E-2</v>
       </c>
-      <c r="U25" s="4">
-        <f t="shared" ref="U25" ca="1" si="37">U5/Q5-1</f>
+      <c r="U24" s="4">
+        <f ca="1">U5/Q5-1</f>
         <v>4.2372881355932313E-2</v>
       </c>
-      <c r="V25" s="4">
-        <f t="shared" ref="V25" si="38">V5/R5-1</f>
-        <v>0.5716705157813704</v>
-      </c>
-      <c r="W25" s="4">
-        <f t="shared" ref="W25" si="39">W5/S5-1</f>
-        <v>0.51264023934181013</v>
-      </c>
-      <c r="X25" s="4">
-        <f t="shared" ref="X25" si="40">X5/T5-1</f>
-        <v>1.3461936437546198</v>
-      </c>
-      <c r="Y25" s="4">
-        <f t="shared" ref="Y25" si="41">Y5/U5-1</f>
-        <v>1.4499457784663052</v>
-      </c>
-      <c r="Z25" s="4">
-        <f t="shared" ref="Z25" si="42">Z5/V5-1</f>
-        <v>2.9542570532915366</v>
-      </c>
-      <c r="AA25" s="4">
-        <f t="shared" ref="AA25" si="43">AA5/W5-1</f>
-        <v>2.6131544303797476</v>
-      </c>
-      <c r="AB25" s="4">
-        <f t="shared" ref="AB25" si="44">AB5/X5-1</f>
-        <v>1.0887451612903227</v>
-      </c>
-      <c r="AC25" s="4">
-        <f t="shared" ref="AC25" si="45">AC5/Y5-1</f>
-        <v>0.19306867664913008</v>
-      </c>
-      <c r="AD25" s="4">
-        <f t="shared" ref="AD25" si="46">AD5/Z5-1</f>
-        <v>-0.3156040006088433</v>
-      </c>
-    </row>
-    <row r="26" spans="2:70" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>57</v>
-      </c>
-      <c r="H26" s="4">
+      <c r="V24" s="4">
+        <f>V5/R5-1</f>
+        <v>0.30956120092378758</v>
+      </c>
+      <c r="W24" s="4">
+        <f>W5/S5-1</f>
+        <v>0.37803440538519095</v>
+      </c>
+      <c r="X24" s="4">
+        <f>X5/T5-1</f>
+        <v>0.4808833702882489</v>
+      </c>
+      <c r="Y24" s="4">
+        <f>Y5/U5-1</f>
+        <v>0.40342370820668716</v>
+      </c>
+      <c r="Z24" s="4">
+        <f>Z5/V5-1</f>
+        <v>0.44251422121896211</v>
+      </c>
+      <c r="AA24" s="4">
+        <f>AA5/W5-1</f>
+        <v>0.47633426427678227</v>
+      </c>
+      <c r="AB24" s="4">
+        <f>AB5/X5-1</f>
+        <v>0.4933107784890185</v>
+      </c>
+      <c r="AC24" s="4">
+        <f>AC5/Y5-1</f>
+        <v>0.48503125279386272</v>
+      </c>
+      <c r="AD24" s="4">
+        <f>AD5/Z5-1</f>
+        <v>0.47536395505214313</v>
+      </c>
+      <c r="AL24" s="4">
+        <f>AK5/AL5</f>
+        <v>0.67462176023096421</v>
+      </c>
+    </row>
+    <row r="25" spans="2:101" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>53</v>
+      </c>
+      <c r="H25" s="4">
         <f>H7/H5</f>
         <v>0.46853146853146854</v>
       </c>
-      <c r="I26" s="4">
-        <f t="shared" ref="I26:T26" si="47">I7/I5</f>
+      <c r="I25" s="4">
+        <f>I7/I5</f>
         <v>0.61240310077519378</v>
       </c>
-      <c r="J26" s="4">
-        <f t="shared" si="47"/>
+      <c r="J25" s="4">
+        <f>J7/J5</f>
         <v>0.60526315789473684</v>
       </c>
-      <c r="K26" s="4">
-        <f t="shared" si="47"/>
+      <c r="K25" s="4">
+        <f>K7/K5</f>
         <v>0.6225045372050817</v>
       </c>
-      <c r="L26" s="4">
-        <f t="shared" si="47"/>
+      <c r="L25" s="4">
+        <f>L7/L5</f>
         <v>0.48778735632183906</v>
       </c>
-      <c r="M26" s="4">
-        <f t="shared" si="47"/>
+      <c r="M25" s="4">
+        <f>M7/M5</f>
         <v>0.50888415067519543</v>
       </c>
-      <c r="N26" s="4">
-        <f t="shared" si="47"/>
+      <c r="N25" s="4">
+        <f>N7/N5</f>
         <v>0.53772189349112431</v>
       </c>
-      <c r="O26" s="4">
-        <f t="shared" si="47"/>
+      <c r="O25" s="4">
+        <f>O7/O5</f>
         <v>0.52881619937694702</v>
       </c>
-      <c r="P26" s="4">
+      <c r="P25" s="4">
         <f>P7/P5</f>
         <v>0.31972265023112478</v>
       </c>
-      <c r="Q26" s="4">
-        <f t="shared" ca="1" si="47"/>
+      <c r="Q25" s="4">
+        <f ca="1">Q7/Q5</f>
         <v>0.46853146853146854</v>
       </c>
-      <c r="R26" s="4">
-        <f t="shared" si="47"/>
+      <c r="R25" s="4">
+        <f>R7/R5</f>
         <v>0.49114703618167821</v>
       </c>
-      <c r="S26" s="4">
-        <f t="shared" si="47"/>
+      <c r="S25" s="4">
+        <f>S7/S5</f>
         <v>0.5766641735228123</v>
       </c>
-      <c r="T26" s="4">
-        <f t="shared" si="47"/>
+      <c r="T25" s="4">
+        <f>T7/T5</f>
         <v>0.54619364375461932</v>
       </c>
-      <c r="U26" s="4">
+      <c r="U25" s="4">
         <v>0.5</v>
       </c>
-      <c r="V26" s="4">
+      <c r="V25" s="4">
         <v>0.5</v>
       </c>
-      <c r="W26" s="4">
+      <c r="W25" s="4">
         <v>0.5</v>
       </c>
-      <c r="X26" s="4">
+      <c r="X25" s="4">
         <v>0.5</v>
       </c>
-      <c r="Y26" s="4">
+      <c r="Y25" s="4">
         <v>0.5</v>
       </c>
-      <c r="Z26" s="4">
+      <c r="Z25" s="4">
         <v>0.5</v>
       </c>
-      <c r="AA26" s="4">
+      <c r="AA25" s="4">
         <v>0.5</v>
       </c>
-      <c r="AB26" s="4">
+      <c r="AB25" s="4">
         <v>0.5</v>
       </c>
-      <c r="AC26" s="4">
+      <c r="AC25" s="4">
         <v>0.5</v>
       </c>
-      <c r="AD26" s="4">
+      <c r="AD25" s="4">
         <v>0.5</v>
       </c>
     </row>
-    <row r="27" spans="2:70" x14ac:dyDescent="0.25">
-      <c r="X27" s="15"/>
-    </row>
-    <row r="28" spans="2:70" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+    <row r="26" spans="2:101" x14ac:dyDescent="0.25">
+      <c r="X26" s="15"/>
+    </row>
+    <row r="27" spans="2:101" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>2</v>
       </c>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="AF28" s="9">
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="AF27" s="9">
         <f>1423+1309+538</f>
         <v>3270</v>
       </c>
-      <c r="AG28" s="9">
+      <c r="AG27" s="9">
         <f>1732+820+359</f>
         <v>2911</v>
       </c>
-      <c r="AH28" s="9">
+      <c r="AH27" s="9">
         <f>827+187+307</f>
         <v>1321</v>
       </c>
-      <c r="AI28" s="9">
+      <c r="AI27" s="9">
         <f>754+22+252</f>
         <v>1028</v>
       </c>
     </row>
-    <row r="29" spans="2:70" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:101" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF28" s="8">
+        <v>658</v>
+      </c>
+      <c r="AG28" s="8">
+        <v>684</v>
+      </c>
+      <c r="AH28" s="8">
+        <v>843</v>
+      </c>
+      <c r="AI28" s="8">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="29" spans="2:101" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="AF29" s="8">
-        <v>658</v>
+        <v>0</v>
       </c>
       <c r="AG29" s="8">
-        <v>684</v>
+        <v>10</v>
       </c>
       <c r="AH29" s="8">
-        <v>843</v>
+        <v>0</v>
       </c>
       <c r="AI29" s="8">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="30" spans="2:70" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:101" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="AF30" s="8">
+        <v>17</v>
+      </c>
+      <c r="AG30" s="8">
         <v>0</v>
-      </c>
-      <c r="AG30" s="8">
-        <v>10</v>
       </c>
       <c r="AH30" s="8">
         <v>0</v>
@@ -3033,332 +3713,315 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:70" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:101" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>59</v>
+        <v>56</v>
+      </c>
+      <c r="V31" t="s">
+        <v>87</v>
+      </c>
+      <c r="W31" s="4">
+        <v>-0.01</v>
       </c>
       <c r="AF31" s="8">
-        <v>17</v>
+        <v>215</v>
       </c>
       <c r="AG31" s="8">
-        <v>0</v>
+        <v>183</v>
       </c>
       <c r="AH31" s="8">
-        <v>0</v>
+        <v>277</v>
       </c>
       <c r="AI31" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:70" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="32" spans="2:101" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="V32" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="W32" s="4">
-        <v>-0.02</v>
+        <v>0.05</v>
       </c>
       <c r="AF32" s="8">
-        <v>215</v>
+        <v>314</v>
       </c>
       <c r="AG32" s="8">
-        <v>183</v>
+        <v>459</v>
       </c>
       <c r="AH32" s="8">
-        <v>277</v>
+        <v>685</v>
       </c>
       <c r="AI32" s="8">
-        <v>180</v>
+        <v>736</v>
       </c>
     </row>
     <row r="33" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="V33" t="s">
-        <v>92</v>
-      </c>
-      <c r="W33" s="4">
-        <v>0.05</v>
+        <v>89</v>
+      </c>
+      <c r="W33" s="18">
+        <f>NPV($W$32,AG20:DR20)</f>
+        <v>66194.109184822999</v>
       </c>
       <c r="AF33" s="8">
-        <v>314</v>
+        <v>7</v>
       </c>
       <c r="AG33" s="8">
-        <v>459</v>
+        <v>36</v>
       </c>
       <c r="AH33" s="8">
-        <v>685</v>
+        <v>34</v>
       </c>
       <c r="AI33" s="8">
-        <v>736</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>62</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
       <c r="V34" t="s">
-        <v>93</v>
-      </c>
-      <c r="W34" s="18">
-        <f>NPV($W$33,H21:DR21)</f>
-        <v>7175.8041758890949</v>
+        <v>5</v>
+      </c>
+      <c r="W34" s="17">
+        <f>W33/W35</f>
+        <v>378.25205248470286</v>
       </c>
       <c r="AF34" s="8">
-        <v>7</v>
+        <v>535</v>
       </c>
       <c r="AG34" s="8">
-        <v>36</v>
+        <v>674</v>
       </c>
       <c r="AH34" s="8">
-        <v>34</v>
+        <v>6767</v>
       </c>
       <c r="AI34" s="8">
-        <v>34</v>
+        <v>4426</v>
       </c>
     </row>
     <row r="35" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
       <c r="V35" t="s">
-        <v>5</v>
-      </c>
-      <c r="W35" s="17">
-        <f>W34/W36</f>
-        <v>40.771614635733492</v>
+        <v>90</v>
+      </c>
+      <c r="W35" s="8">
+        <v>175</v>
       </c>
       <c r="AF35" s="8">
-        <v>535</v>
+        <v>612</v>
       </c>
       <c r="AG35" s="8">
-        <v>674</v>
+        <v>1022</v>
       </c>
       <c r="AH35" s="8">
-        <v>6767</v>
+        <v>5525</v>
       </c>
       <c r="AI35" s="8">
-        <v>4426</v>
+        <v>4507</v>
       </c>
     </row>
     <row r="36" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>63</v>
-      </c>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
+        <v>73</v>
+      </c>
       <c r="V36" t="s">
-        <v>94</v>
-      </c>
-      <c r="W36" s="8">
-        <v>176</v>
+        <v>91</v>
+      </c>
+      <c r="W36" s="24">
+        <f>W34/W37-1</f>
+        <v>1.0783079806851807</v>
       </c>
       <c r="AF36" s="8">
-        <v>612</v>
+        <v>90</v>
       </c>
       <c r="AG36" s="8">
-        <v>1022</v>
+        <v>73</v>
       </c>
       <c r="AH36" s="8">
-        <v>5525</v>
+        <v>45</v>
       </c>
       <c r="AI36" s="8">
-        <v>4507</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="V37" t="s">
-        <v>95</v>
-      </c>
-      <c r="W37" s="4">
-        <f>W35/W38-1</f>
-        <v>-0.77598013936410171</v>
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <v>182</v>
       </c>
       <c r="AF37" s="8">
-        <v>90</v>
+        <v>248</v>
       </c>
       <c r="AG37" s="8">
-        <v>73</v>
+        <v>409</v>
       </c>
       <c r="AH37" s="8">
-        <v>45</v>
+        <v>296</v>
       </c>
       <c r="AI37" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>64</v>
-      </c>
-      <c r="V38" t="s">
-        <v>0</v>
-      </c>
-      <c r="W38">
-        <v>182</v>
-      </c>
-      <c r="AF38" s="8">
-        <v>248</v>
-      </c>
-      <c r="AG38" s="8">
-        <v>409</v>
-      </c>
-      <c r="AH38" s="8">
-        <v>296</v>
-      </c>
-      <c r="AI38" s="8">
         <v>249</v>
       </c>
     </row>
-    <row r="39" spans="2:35" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD39" s="14"/>
-      <c r="AF39" s="9">
-        <f>SUM(AF28:AF38)+59</f>
+    <row r="38" spans="2:35" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD38" s="14"/>
+      <c r="AF38" s="9">
+        <f>SUM(AF27:AF37)+59</f>
         <v>6025</v>
       </c>
-      <c r="AG39" s="9">
-        <f t="shared" ref="AG39:AI39" si="48">SUM(AG28:AG38)+59</f>
+      <c r="AG38" s="9">
+        <f t="shared" ref="AG38:AI38" si="67">SUM(AG27:AG37)+59</f>
         <v>6520</v>
       </c>
-      <c r="AH39" s="9">
-        <f t="shared" si="48"/>
+      <c r="AH38" s="9">
+        <f t="shared" si="67"/>
         <v>15852</v>
       </c>
-      <c r="AI39" s="9">
-        <f t="shared" si="48"/>
+      <c r="AI38" s="9">
+        <f t="shared" si="67"/>
         <v>12189</v>
+      </c>
+    </row>
+    <row r="40" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>61</v>
+      </c>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="AF40" s="8">
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>65</v>
-      </c>
-      <c r="K41" s="7"/>
-      <c r="L41" s="7"/>
+        <v>62</v>
+      </c>
       <c r="AF41" s="8">
-        <v>71</v>
+        <v>969</v>
       </c>
     </row>
     <row r="42" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>66</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
       <c r="AF42" s="8">
-        <v>969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>67</v>
-      </c>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
+        <v>64</v>
+      </c>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
       <c r="AF43" s="8">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>68</v>
-      </c>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
+        <v>65</v>
+      </c>
       <c r="AF44" s="8">
-        <v>31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="AF45" s="8">
-        <v>0</v>
+        <v>234</v>
       </c>
     </row>
     <row r="46" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="AF46" s="8">
-        <v>234</v>
+        <v>928</v>
       </c>
     </row>
     <row r="47" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="AF47" s="8">
-        <v>928</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="AF48" s="8">
-        <v>0</v>
+        <v>159</v>
       </c>
     </row>
     <row r="49" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="AF49" s="8">
-        <v>159</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AF50" s="8">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="51" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>81</v>
-      </c>
-      <c r="AF51" s="8">
         <v>261</v>
       </c>
     </row>
-    <row r="52" spans="2:32" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="AD52" s="14"/>
-      <c r="AF52" s="9">
-        <f>SUM(AF41:AF51)</f>
+    <row r="51" spans="2:32" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD51" s="14"/>
+      <c r="AF51" s="9">
+        <f>SUM(AF40:AF50)</f>
         <v>2690</v>
       </c>
     </row>
-    <row r="53" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF53" s="8">
+    <row r="52" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF52" s="8">
         <v>3332</v>
       </c>
     </row>
-    <row r="54" spans="2:32" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD54" s="14"/>
-      <c r="AF54" s="9">
-        <f>AF53+AF52</f>
+    <row r="53" spans="2:32" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD53" s="14"/>
+      <c r="AF53" s="9">
+        <f>AF52+AF51</f>
         <v>6022</v>
       </c>
     </row>
